--- a/10_BIBLIOGRAFIAS_UAs_CARRERAS/IC/TABLA_BIBLIOGRAFIA_IC.xlsx
+++ b/10_BIBLIOGRAFIAS_UAs_CARRERAS/IC/TABLA_BIBLIOGRAFIA_IC.xlsx
@@ -159,7 +159,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,11 +167,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -179,11 +194,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,206 +493,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -751,8 +782,14 @@
       <c r="C50" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B5:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
